--- a/database/seeders/data/Service Charge.xlsx
+++ b/database/seeders/data/Service Charge.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="527">
   <si>
     <t>id</t>
   </si>
@@ -1588,6 +1588,15 @@
   </si>
   <si>
     <t>export</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>sea</t>
   </si>
 </sst>
 </file>
@@ -1919,24 +1928,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1947,25 +1957,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>521</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1975,20 +1988,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1999,22 +2012,25 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2025,22 +2041,25 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" t="s">
         <v>523</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2051,22 +2070,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" t="s">
         <v>523</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2077,22 +2099,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2103,22 +2128,25 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2129,22 +2157,25 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2155,22 +2186,25 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E9" t="s">
         <v>523</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2180,20 +2214,23 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2203,20 +2240,23 @@
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2226,20 +2266,20 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2250,22 +2290,25 @@
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2276,22 +2319,25 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E14" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2302,22 +2348,25 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
+        <v>522</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>49</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2327,20 +2376,20 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2351,22 +2400,25 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2377,22 +2429,25 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E18" t="s">
+        <v>522</v>
+      </c>
+      <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>49</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2403,22 +2458,25 @@
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E19" t="s">
+        <v>522</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>48</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>49</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2428,20 +2486,20 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>48</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>49</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2452,22 +2510,25 @@
         <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E21" t="s">
+        <v>522</v>
+      </c>
+      <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>48</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>49</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2478,22 +2539,25 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
+        <v>525</v>
+      </c>
+      <c r="E22" t="s">
         <v>523</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>21</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2504,22 +2568,25 @@
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E23" t="s">
+        <v>522</v>
+      </c>
+      <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>16</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2530,22 +2597,25 @@
         <v>74</v>
       </c>
       <c r="D24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E24" t="s">
         <v>523</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>76</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>77</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2556,22 +2626,25 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
+        <v>525</v>
+      </c>
+      <c r="E25" t="s">
         <v>523</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2582,22 +2655,25 @@
         <v>83</v>
       </c>
       <c r="D26" t="s">
+        <v>525</v>
+      </c>
+      <c r="E26" t="s">
         <v>523</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2608,22 +2684,25 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E27" t="s">
+        <v>522</v>
+      </c>
+      <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>86</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>87</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2634,22 +2713,25 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E28" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>91</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2660,22 +2742,25 @@
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E29" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>16</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2686,22 +2771,25 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" t="s">
         <v>523</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>96</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>97</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2712,22 +2800,25 @@
         <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E31" t="s">
+        <v>522</v>
+      </c>
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>48</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>49</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2738,22 +2829,25 @@
         <v>101</v>
       </c>
       <c r="D32" t="s">
+        <v>526</v>
+      </c>
+      <c r="E32" t="s">
         <v>523</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>102</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>77</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2764,22 +2858,25 @@
         <v>104</v>
       </c>
       <c r="D33" t="s">
+        <v>526</v>
+      </c>
+      <c r="E33" t="s">
         <v>523</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>80</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
       </c>
       <c r="G33" t="s">
         <v>81</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2790,22 +2887,25 @@
         <v>106</v>
       </c>
       <c r="D34" t="s">
+        <v>525</v>
+      </c>
+      <c r="E34" t="s">
         <v>523</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>107</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>108</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>109</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2816,22 +2916,25 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E35" t="s">
         <v>523</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>107</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>112</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>113</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2842,22 +2945,25 @@
         <v>115</v>
       </c>
       <c r="D36" t="s">
+        <v>526</v>
+      </c>
+      <c r="E36" t="s">
         <v>523</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>107</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>116</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>117</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2868,22 +2974,25 @@
         <v>119</v>
       </c>
       <c r="D37" t="s">
+        <v>526</v>
+      </c>
+      <c r="E37" t="s">
         <v>523</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>107</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>120</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>121</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2894,22 +3003,25 @@
         <v>123</v>
       </c>
       <c r="D38" t="s">
+        <v>526</v>
+      </c>
+      <c r="E38" t="s">
         <v>523</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>107</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>124</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>125</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2920,22 +3032,25 @@
         <v>127</v>
       </c>
       <c r="D39" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" t="s">
         <v>523</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>128</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>20</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>21</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2946,22 +3061,25 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
+        <v>525</v>
+      </c>
+      <c r="E40" t="s">
         <v>523</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>24</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>25</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2972,22 +3090,25 @@
         <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E41" t="s">
+        <v>522</v>
+      </c>
+      <c r="F41" t="s">
         <v>14</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>48</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>49</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2998,22 +3119,25 @@
         <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E42" t="s">
+        <v>522</v>
+      </c>
+      <c r="F42" t="s">
         <v>14</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>48</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>49</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3023,20 +3147,20 @@
       <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>48</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>49</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3047,22 +3171,25 @@
         <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>48</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>49</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3073,22 +3200,25 @@
         <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E45" t="s">
+        <v>522</v>
+      </c>
+      <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>48</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>49</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3099,22 +3229,25 @@
         <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E46" t="s">
+        <v>522</v>
+      </c>
+      <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>15</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>16</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3125,22 +3258,25 @@
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E47" t="s">
+        <v>522</v>
+      </c>
+      <c r="F47" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>16</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3150,20 +3286,23 @@
       <c r="C48" t="s">
         <v>146</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
+        <v>526</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>48</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>49</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3174,22 +3313,25 @@
         <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E49" t="s">
+        <v>522</v>
+      </c>
+      <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>149</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>150</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3200,22 +3342,25 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E50" t="s">
+        <v>522</v>
+      </c>
+      <c r="F50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3226,22 +3371,25 @@
         <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E51" t="s">
+        <v>522</v>
+      </c>
+      <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>48</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>49</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3252,22 +3400,25 @@
         <v>156</v>
       </c>
       <c r="D52" t="s">
+        <v>525</v>
+      </c>
+      <c r="E52" t="s">
         <v>523</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>19</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>20</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>21</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3278,22 +3429,25 @@
         <v>158</v>
       </c>
       <c r="D53" t="s">
+        <v>526</v>
+      </c>
+      <c r="E53" t="s">
         <v>523</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>159</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>160</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3304,22 +3458,25 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
+        <v>526</v>
+      </c>
+      <c r="E54" t="s">
         <v>523</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>19</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>163</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>164</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3330,22 +3487,25 @@
         <v>166</v>
       </c>
       <c r="D55" t="s">
+        <v>526</v>
+      </c>
+      <c r="E55" t="s">
         <v>523</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>19</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>167</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>168</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3356,22 +3516,25 @@
         <v>170</v>
       </c>
       <c r="D56" t="s">
+        <v>526</v>
+      </c>
+      <c r="E56" t="s">
         <v>523</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>19</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>171</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>172</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3382,22 +3545,25 @@
         <v>174</v>
       </c>
       <c r="D57" t="s">
+        <v>525</v>
+      </c>
+      <c r="E57" t="s">
         <v>523</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>19</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>175</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>176</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3408,22 +3574,25 @@
         <v>178</v>
       </c>
       <c r="D58" t="s">
+        <v>526</v>
+      </c>
+      <c r="E58" t="s">
         <v>523</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>19</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>179</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>180</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3434,22 +3603,25 @@
         <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E59" t="s">
+        <v>522</v>
+      </c>
+      <c r="F59" t="s">
         <v>19</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>44</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>45</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3460,22 +3632,25 @@
         <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E60" t="s">
+        <v>522</v>
+      </c>
+      <c r="F60" t="s">
         <v>19</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>185</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>186</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3486,22 +3661,25 @@
         <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E61" t="s">
+        <v>522</v>
+      </c>
+      <c r="F61" t="s">
         <v>19</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>189</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>190</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3512,22 +3690,25 @@
         <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E62" t="s">
+        <v>522</v>
+      </c>
+      <c r="F62" t="s">
         <v>19</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>193</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>194</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3538,22 +3719,25 @@
         <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E63" t="s">
+        <v>522</v>
+      </c>
+      <c r="F63" t="s">
         <v>14</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>15</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>16</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3564,22 +3748,25 @@
         <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E64" t="s">
+        <v>522</v>
+      </c>
+      <c r="F64" t="s">
         <v>199</v>
-      </c>
-      <c r="F64" t="s">
-        <v>200</v>
       </c>
       <c r="G64" t="s">
         <v>200</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="H64" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3590,22 +3777,25 @@
         <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E65" t="s">
+        <v>522</v>
+      </c>
+      <c r="F65" t="s">
         <v>19</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>203</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>204</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3616,22 +3806,25 @@
         <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E66" t="s">
+        <v>522</v>
+      </c>
+      <c r="F66" t="s">
         <v>14</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>207</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>77</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3642,22 +3835,25 @@
         <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E67" t="s">
+        <v>522</v>
+      </c>
+      <c r="F67" t="s">
         <v>14</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>15</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>16</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3668,22 +3864,25 @@
         <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E68" t="s">
+        <v>522</v>
+      </c>
+      <c r="F68" t="s">
         <v>14</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>16</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3694,22 +3893,25 @@
         <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E69" t="s">
+        <v>522</v>
+      </c>
+      <c r="F69" t="s">
         <v>14</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>15</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>16</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3720,22 +3922,25 @@
         <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E70" t="s">
+        <v>522</v>
+      </c>
+      <c r="F70" t="s">
         <v>107</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>216</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>217</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3746,22 +3951,25 @@
         <v>219</v>
       </c>
       <c r="D71" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E71" t="s">
+        <v>522</v>
+      </c>
+      <c r="F71" t="s">
         <v>107</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>216</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>217</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3772,22 +3980,25 @@
         <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E72" t="s">
+        <v>522</v>
+      </c>
+      <c r="F72" t="s">
         <v>107</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>216</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>217</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3798,22 +4009,25 @@
         <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E73" t="s">
+        <v>522</v>
+      </c>
+      <c r="F73" t="s">
         <v>80</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
       </c>
       <c r="G73" t="s">
         <v>81</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3824,22 +4038,25 @@
         <v>225</v>
       </c>
       <c r="D74" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E74" t="s">
+        <v>522</v>
+      </c>
+      <c r="F74" t="s">
         <v>14</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>15</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>16</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3849,20 +4066,20 @@
       <c r="C75" t="s">
         <v>227</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>38</v>
-      </c>
-      <c r="F75" t="s">
-        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3872,20 +4089,20 @@
       <c r="C76" t="s">
         <v>229</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>19</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>230</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>231</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3895,20 +4112,20 @@
       <c r="C77" t="s">
         <v>233</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>128</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>234</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>235</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3918,20 +4135,20 @@
       <c r="C78" t="s">
         <v>237</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>9</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>238</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>239</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3942,22 +4159,25 @@
         <v>241</v>
       </c>
       <c r="D79" t="s">
+        <v>525</v>
+      </c>
+      <c r="E79" t="s">
         <v>523</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>9</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>242</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>243</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3968,22 +4188,25 @@
         <v>245</v>
       </c>
       <c r="D80" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E80" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>15</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>16</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3994,22 +4217,25 @@
         <v>247</v>
       </c>
       <c r="D81" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E81" t="s">
+        <v>522</v>
+      </c>
+      <c r="F81" t="s">
         <v>107</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>216</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>217</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4020,22 +4246,25 @@
         <v>249</v>
       </c>
       <c r="D82" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E82" t="s">
+        <v>522</v>
+      </c>
+      <c r="F82" t="s">
         <v>107</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>250</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>251</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4046,22 +4275,25 @@
         <v>253</v>
       </c>
       <c r="D83" t="s">
+        <v>525</v>
+      </c>
+      <c r="E83" t="s">
         <v>523</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>254</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>255</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>256</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4072,22 +4304,25 @@
         <v>258</v>
       </c>
       <c r="D84" t="s">
+        <v>526</v>
+      </c>
+      <c r="E84" t="s">
         <v>523</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>254</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>259</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>260</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4098,22 +4333,25 @@
         <v>262</v>
       </c>
       <c r="D85" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E85" t="s">
+        <v>522</v>
+      </c>
+      <c r="F85" t="s">
         <v>254</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>263</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>264</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4124,22 +4362,25 @@
         <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E86" t="s">
+        <v>522</v>
+      </c>
+      <c r="F86" t="s">
         <v>254</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>267</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>268</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4150,22 +4391,25 @@
         <v>270</v>
       </c>
       <c r="D87" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E87" t="s">
+        <v>522</v>
+      </c>
+      <c r="F87" t="s">
         <v>14</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>48</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>49</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4176,22 +4420,25 @@
         <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E88" t="s">
+        <v>522</v>
+      </c>
+      <c r="F88" t="s">
         <v>14</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>48</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>49</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4202,22 +4449,25 @@
         <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E89" t="s">
+        <v>522</v>
+      </c>
+      <c r="F89" t="s">
         <v>14</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>48</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>49</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4228,22 +4478,25 @@
         <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E90" t="s">
+        <v>522</v>
+      </c>
+      <c r="F90" t="s">
         <v>107</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>277</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>278</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4254,22 +4507,25 @@
         <v>280</v>
       </c>
       <c r="D91" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
+        <v>522</v>
+      </c>
+      <c r="F91" t="s">
         <v>281</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>48</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>49</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4280,22 +4536,25 @@
         <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E92" t="s">
+        <v>522</v>
+      </c>
+      <c r="F92" t="s">
         <v>284</v>
-      </c>
-      <c r="F92" t="s">
-        <v>200</v>
       </c>
       <c r="G92" t="s">
         <v>200</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="H92" t="s">
+        <v>200</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4306,22 +4565,25 @@
         <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E93" t="s">
+        <v>522</v>
+      </c>
+      <c r="F93" t="s">
         <v>281</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>48</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>49</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4332,22 +4594,25 @@
         <v>288</v>
       </c>
       <c r="D94" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E94" t="s">
+        <v>522</v>
+      </c>
+      <c r="F94" t="s">
         <v>107</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>278</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4358,22 +4623,25 @@
         <v>290</v>
       </c>
       <c r="D95" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E95" t="s">
+        <v>522</v>
+      </c>
+      <c r="F95" t="s">
         <v>291</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>292</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4384,22 +4652,25 @@
         <v>295</v>
       </c>
       <c r="D96" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E96" t="s">
+        <v>522</v>
+      </c>
+      <c r="F96" t="s">
         <v>281</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>48</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>49</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4410,22 +4681,25 @@
         <v>297</v>
       </c>
       <c r="D97" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E97" t="s">
+        <v>522</v>
+      </c>
+      <c r="F97" t="s">
         <v>281</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>298</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>77</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4436,22 +4710,25 @@
         <v>300</v>
       </c>
       <c r="D98" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E98" t="s">
+        <v>522</v>
+      </c>
+      <c r="F98" t="s">
         <v>281</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>48</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>49</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4462,22 +4739,25 @@
         <v>302</v>
       </c>
       <c r="D99" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E99" t="s">
+        <v>522</v>
+      </c>
+      <c r="F99" t="s">
         <v>303</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>304</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>305</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4488,22 +4768,25 @@
         <v>307</v>
       </c>
       <c r="D100" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E100" t="s">
+        <v>522</v>
+      </c>
+      <c r="F100" t="s">
         <v>281</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>48</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>49</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4514,22 +4797,25 @@
         <v>309</v>
       </c>
       <c r="D101" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E101" t="s">
+        <v>522</v>
+      </c>
+      <c r="F101" t="s">
         <v>303</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>304</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>305</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4540,22 +4826,25 @@
         <v>311</v>
       </c>
       <c r="D102" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E102" t="s">
+        <v>522</v>
+      </c>
+      <c r="F102" t="s">
         <v>303</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>304</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>305</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4566,22 +4855,25 @@
         <v>313</v>
       </c>
       <c r="D103" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E103" t="s">
+        <v>522</v>
+      </c>
+      <c r="F103" t="s">
         <v>303</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>304</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>305</v>
       </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4592,22 +4884,25 @@
         <v>315</v>
       </c>
       <c r="D104" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E104" t="s">
+        <v>522</v>
+      </c>
+      <c r="F104" t="s">
         <v>303</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>277</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>278</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4618,22 +4913,25 @@
         <v>317</v>
       </c>
       <c r="D105" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E105" t="s">
+        <v>522</v>
+      </c>
+      <c r="F105" t="s">
         <v>107</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>277</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>278</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4644,22 +4942,25 @@
         <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E106" t="s">
+        <v>522</v>
+      </c>
+      <c r="F106" t="s">
         <v>320</v>
-      </c>
-      <c r="F106" t="s">
-        <v>81</v>
       </c>
       <c r="G106" t="s">
         <v>81</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="H106" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4670,22 +4971,25 @@
         <v>322</v>
       </c>
       <c r="D107" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E107" t="s">
+        <v>522</v>
+      </c>
+      <c r="F107" t="s">
         <v>291</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>323</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>324</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4696,22 +5000,25 @@
         <v>326</v>
       </c>
       <c r="D108" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E108" t="s">
+        <v>522</v>
+      </c>
+      <c r="F108" t="s">
         <v>291</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>327</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>328</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4722,22 +5029,25 @@
         <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E109" t="s">
+        <v>522</v>
+      </c>
+      <c r="F109" t="s">
         <v>281</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>15</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>16</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4748,22 +5058,25 @@
         <v>332</v>
       </c>
       <c r="D110" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E110" t="s">
+        <v>522</v>
+      </c>
+      <c r="F110" t="s">
         <v>281</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>48</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>49</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4774,22 +5087,25 @@
         <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E111" t="s">
+        <v>522</v>
+      </c>
+      <c r="F111" t="s">
         <v>281</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>48</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>49</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4800,22 +5116,25 @@
         <v>336</v>
       </c>
       <c r="D112" t="s">
+        <v>525</v>
+      </c>
+      <c r="E112" t="s">
         <v>523</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>281</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>24</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>25</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4826,22 +5145,25 @@
         <v>338</v>
       </c>
       <c r="D113" t="s">
+        <v>526</v>
+      </c>
+      <c r="E113" t="s">
         <v>523</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>281</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>96</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>97</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4851,20 +5173,20 @@
       <c r="C114" t="s">
         <v>340</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>341</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>342</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>343</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4875,22 +5197,25 @@
         <v>345</v>
       </c>
       <c r="D115" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E115" t="s">
+        <v>522</v>
+      </c>
+      <c r="F115" t="s">
         <v>281</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>48</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>49</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4901,22 +5226,25 @@
         <v>347</v>
       </c>
       <c r="D116" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E116" t="s">
+        <v>522</v>
+      </c>
+      <c r="F116" t="s">
         <v>281</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>48</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>49</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4926,20 +5254,20 @@
       <c r="C117" t="s">
         <v>349</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>291</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>44</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>251</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4950,22 +5278,25 @@
         <v>351</v>
       </c>
       <c r="D118" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E118" t="s">
+        <v>522</v>
+      </c>
+      <c r="F118" t="s">
         <v>352</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>44</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>45</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4976,22 +5307,25 @@
         <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E119" t="s">
+        <v>522</v>
+      </c>
+      <c r="F119" t="s">
         <v>291</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>185</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>186</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5002,22 +5336,25 @@
         <v>356</v>
       </c>
       <c r="D120" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E120" t="s">
+        <v>522</v>
+      </c>
+      <c r="F120" t="s">
         <v>291</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>189</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>190</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5028,22 +5365,25 @@
         <v>358</v>
       </c>
       <c r="D121" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E121" t="s">
+        <v>522</v>
+      </c>
+      <c r="F121" t="s">
         <v>352</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>193</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>194</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5053,20 +5393,20 @@
       <c r="C122" t="s">
         <v>360</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>291</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>44</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>45</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5077,22 +5417,25 @@
         <v>362</v>
       </c>
       <c r="D123" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E123" t="s">
+        <v>522</v>
+      </c>
+      <c r="F123" t="s">
         <v>281</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>48</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>49</v>
       </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5103,22 +5446,25 @@
         <v>364</v>
       </c>
       <c r="D124" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E124" t="s">
+        <v>522</v>
+      </c>
+      <c r="F124" t="s">
         <v>281</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>15</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>16</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5129,22 +5475,25 @@
         <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E125" t="s">
+        <v>522</v>
+      </c>
+      <c r="F125" t="s">
         <v>281</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>15</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>16</v>
       </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5155,22 +5504,25 @@
         <v>368</v>
       </c>
       <c r="D126" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E126" t="s">
+        <v>522</v>
+      </c>
+      <c r="F126" t="s">
         <v>281</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>48</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>49</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5181,22 +5533,25 @@
         <v>370</v>
       </c>
       <c r="D127" t="s">
+        <v>525</v>
+      </c>
+      <c r="E127" t="s">
         <v>523</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>371</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>86</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>87</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5207,22 +5562,25 @@
         <v>373</v>
       </c>
       <c r="D128" t="s">
+        <v>526</v>
+      </c>
+      <c r="E128" t="s">
         <v>523</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>371</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>90</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>91</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5232,20 +5590,20 @@
       <c r="C129" t="s">
         <v>375</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>320</v>
-      </c>
-      <c r="F129" t="s">
-        <v>376</v>
       </c>
       <c r="G129" t="s">
         <v>376</v>
       </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="H129" t="s">
+        <v>376</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5255,20 +5613,20 @@
       <c r="C130" t="s">
         <v>378</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>379</v>
-      </c>
-      <c r="F130" t="s">
-        <v>380</v>
       </c>
       <c r="G130" t="s">
         <v>380</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="H130" t="s">
+        <v>380</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5279,22 +5637,25 @@
         <v>382</v>
       </c>
       <c r="D131" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E131" t="s">
+        <v>522</v>
+      </c>
+      <c r="F131" t="s">
         <v>281</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>15</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>16</v>
       </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5305,22 +5666,25 @@
         <v>384</v>
       </c>
       <c r="D132" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E132" t="s">
+        <v>522</v>
+      </c>
+      <c r="F132" t="s">
         <v>281</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>48</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>49</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5330,20 +5694,23 @@
       <c r="C133" t="s">
         <v>386</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D133" t="s">
+        <v>525</v>
+      </c>
+      <c r="F133" t="s">
         <v>387</v>
-      </c>
-      <c r="F133" t="s">
-        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="H133" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5353,20 +5720,23 @@
       <c r="C134" t="s">
         <v>389</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D134" t="s">
+        <v>525</v>
+      </c>
+      <c r="F134" t="s">
         <v>387</v>
-      </c>
-      <c r="F134" t="s">
-        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="H134" t="s">
+        <v>39</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5376,20 +5746,23 @@
       <c r="C135" t="s">
         <v>391</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D135" t="s">
+        <v>525</v>
+      </c>
+      <c r="F135" t="s">
         <v>387</v>
-      </c>
-      <c r="F135" t="s">
-        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5399,20 +5772,23 @@
       <c r="C136" t="s">
         <v>393</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D136" t="s">
+        <v>525</v>
+      </c>
+      <c r="F136" t="s">
         <v>387</v>
-      </c>
-      <c r="F136" t="s">
-        <v>39</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="H136" t="s">
+        <v>39</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5422,20 +5798,23 @@
       <c r="C137" t="s">
         <v>395</v>
       </c>
-      <c r="E137" t="s">
+      <c r="D137" t="s">
+        <v>526</v>
+      </c>
+      <c r="F137" t="s">
         <v>387</v>
-      </c>
-      <c r="F137" t="s">
-        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>39</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="H137" t="s">
+        <v>39</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5445,20 +5824,23 @@
       <c r="C138" t="s">
         <v>397</v>
       </c>
-      <c r="E138" t="s">
+      <c r="D138" t="s">
+        <v>525</v>
+      </c>
+      <c r="F138" t="s">
         <v>387</v>
-      </c>
-      <c r="F138" t="s">
-        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="H138" t="s">
+        <v>39</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5468,20 +5850,23 @@
       <c r="C139" t="s">
         <v>399</v>
       </c>
-      <c r="E139" t="s">
+      <c r="D139" t="s">
+        <v>526</v>
+      </c>
+      <c r="F139" t="s">
         <v>387</v>
-      </c>
-      <c r="F139" t="s">
-        <v>39</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="H139" t="s">
+        <v>39</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5491,20 +5876,23 @@
       <c r="C140" t="s">
         <v>401</v>
       </c>
-      <c r="E140" t="s">
+      <c r="D140" t="s">
+        <v>526</v>
+      </c>
+      <c r="F140" t="s">
         <v>387</v>
-      </c>
-      <c r="F140" t="s">
-        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="H140" t="s">
+        <v>39</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5514,20 +5902,23 @@
       <c r="C141" t="s">
         <v>403</v>
       </c>
-      <c r="E141" t="s">
+      <c r="D141" t="s">
+        <v>525</v>
+      </c>
+      <c r="F141" t="s">
         <v>387</v>
-      </c>
-      <c r="F141" t="s">
-        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>39</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="H141" t="s">
+        <v>39</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5537,20 +5928,23 @@
       <c r="C142" t="s">
         <v>405</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D142" t="s">
+        <v>526</v>
+      </c>
+      <c r="F142" t="s">
         <v>387</v>
-      </c>
-      <c r="F142" t="s">
-        <v>39</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="H142" t="s">
+        <v>39</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5560,20 +5954,23 @@
       <c r="C143" t="s">
         <v>407</v>
       </c>
-      <c r="E143" t="s">
+      <c r="D143" t="s">
+        <v>526</v>
+      </c>
+      <c r="F143" t="s">
         <v>387</v>
-      </c>
-      <c r="F143" t="s">
-        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="H143" t="s">
+        <v>39</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5583,20 +5980,23 @@
       <c r="C144" t="s">
         <v>409</v>
       </c>
-      <c r="E144" t="s">
+      <c r="D144" t="s">
+        <v>526</v>
+      </c>
+      <c r="F144" t="s">
         <v>387</v>
-      </c>
-      <c r="F144" t="s">
-        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5606,20 +6006,23 @@
       <c r="C145" t="s">
         <v>411</v>
       </c>
-      <c r="E145" t="s">
+      <c r="D145" t="s">
+        <v>526</v>
+      </c>
+      <c r="F145" t="s">
         <v>387</v>
-      </c>
-      <c r="F145" t="s">
-        <v>39</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="H145" t="s">
+        <v>39</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5629,20 +6032,23 @@
       <c r="C146" t="s">
         <v>413</v>
       </c>
-      <c r="E146" t="s">
+      <c r="D146" t="s">
+        <v>526</v>
+      </c>
+      <c r="F146" t="s">
         <v>387</v>
-      </c>
-      <c r="F146" t="s">
-        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
       </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="H146" t="s">
+        <v>39</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5652,20 +6058,23 @@
       <c r="C147" t="s">
         <v>415</v>
       </c>
-      <c r="E147" t="s">
+      <c r="D147" t="s">
+        <v>526</v>
+      </c>
+      <c r="F147" t="s">
         <v>387</v>
-      </c>
-      <c r="F147" t="s">
-        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="H147" t="s">
+        <v>39</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5675,20 +6084,23 @@
       <c r="C148" t="s">
         <v>417</v>
       </c>
-      <c r="E148" t="s">
+      <c r="D148" t="s">
+        <v>526</v>
+      </c>
+      <c r="F148" t="s">
         <v>387</v>
-      </c>
-      <c r="F148" t="s">
-        <v>39</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="H148" t="s">
+        <v>39</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5698,20 +6110,23 @@
       <c r="C149" t="s">
         <v>419</v>
       </c>
-      <c r="E149" t="s">
+      <c r="D149" t="s">
+        <v>526</v>
+      </c>
+      <c r="F149" t="s">
         <v>387</v>
-      </c>
-      <c r="F149" t="s">
-        <v>39</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="H149" t="s">
+        <v>39</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5721,20 +6136,23 @@
       <c r="C150" t="s">
         <v>421</v>
       </c>
-      <c r="E150" t="s">
+      <c r="D150" t="s">
+        <v>526</v>
+      </c>
+      <c r="F150" t="s">
         <v>387</v>
-      </c>
-      <c r="F150" t="s">
-        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>39</v>
       </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="H150" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5745,22 +6163,25 @@
         <v>423</v>
       </c>
       <c r="D151" t="s">
+        <v>526</v>
+      </c>
+      <c r="E151" t="s">
         <v>523</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>281</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>96</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>97</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5770,20 +6191,23 @@
       <c r="C152" t="s">
         <v>425</v>
       </c>
-      <c r="E152" t="s">
+      <c r="D152" t="s">
+        <v>526</v>
+      </c>
+      <c r="F152" t="s">
         <v>387</v>
-      </c>
-      <c r="F152" t="s">
-        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>39</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="H152" t="s">
+        <v>39</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5793,20 +6217,20 @@
       <c r="C153" t="s">
         <v>427</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>387</v>
-      </c>
-      <c r="F153" t="s">
-        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>39</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="H153" t="s">
+        <v>39</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5817,22 +6241,25 @@
         <v>429</v>
       </c>
       <c r="D154" t="s">
+        <v>525</v>
+      </c>
+      <c r="E154" t="s">
         <v>523</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>387</v>
-      </c>
-      <c r="F154" t="s">
-        <v>39</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="H154" t="s">
+        <v>39</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5842,20 +6269,23 @@
       <c r="C155" t="s">
         <v>431</v>
       </c>
-      <c r="E155" t="s">
+      <c r="D155" t="s">
+        <v>526</v>
+      </c>
+      <c r="F155" t="s">
         <v>387</v>
-      </c>
-      <c r="F155" t="s">
-        <v>39</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="H155" t="s">
+        <v>39</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5866,22 +6296,25 @@
         <v>433</v>
       </c>
       <c r="D156" t="s">
+        <v>526</v>
+      </c>
+      <c r="E156" t="s">
         <v>523</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>387</v>
-      </c>
-      <c r="F156" t="s">
-        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="H156" t="s">
+        <v>39</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5891,20 +6324,20 @@
       <c r="C157" t="s">
         <v>435</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>341</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>436</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>437</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5914,20 +6347,23 @@
       <c r="C158" t="s">
         <v>439</v>
       </c>
-      <c r="E158" t="s">
+      <c r="D158" t="s">
+        <v>526</v>
+      </c>
+      <c r="F158" t="s">
         <v>387</v>
-      </c>
-      <c r="F158" t="s">
-        <v>39</v>
       </c>
       <c r="G158" t="s">
         <v>39</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="H158" t="s">
+        <v>39</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5937,20 +6373,23 @@
       <c r="C159" t="s">
         <v>441</v>
       </c>
-      <c r="E159" t="s">
+      <c r="D159" t="s">
+        <v>526</v>
+      </c>
+      <c r="F159" t="s">
         <v>387</v>
-      </c>
-      <c r="F159" t="s">
-        <v>39</v>
       </c>
       <c r="G159" t="s">
         <v>39</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="H159" t="s">
+        <v>39</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5960,20 +6399,23 @@
       <c r="C160" t="s">
         <v>443</v>
       </c>
-      <c r="E160" t="s">
+      <c r="D160" t="s">
+        <v>526</v>
+      </c>
+      <c r="F160" t="s">
         <v>387</v>
-      </c>
-      <c r="F160" t="s">
-        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>39</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="H160" t="s">
+        <v>39</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5983,20 +6425,23 @@
       <c r="C161" t="s">
         <v>445</v>
       </c>
-      <c r="E161" t="s">
+      <c r="D161" t="s">
+        <v>526</v>
+      </c>
+      <c r="F161" t="s">
         <v>387</v>
-      </c>
-      <c r="F161" t="s">
-        <v>39</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="H161" t="s">
+        <v>39</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6006,20 +6451,20 @@
       <c r="C162" t="s">
         <v>447</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>341</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>448</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>449</v>
       </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6029,20 +6474,23 @@
       <c r="C163" t="s">
         <v>451</v>
       </c>
-      <c r="E163" t="s">
+      <c r="D163" t="s">
+        <v>526</v>
+      </c>
+      <c r="F163" t="s">
         <v>387</v>
-      </c>
-      <c r="F163" t="s">
-        <v>39</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="H163" t="s">
+        <v>39</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6052,20 +6500,23 @@
       <c r="C164" t="s">
         <v>453</v>
       </c>
-      <c r="E164" t="s">
+      <c r="D164" t="s">
+        <v>526</v>
+      </c>
+      <c r="F164" t="s">
         <v>387</v>
-      </c>
-      <c r="F164" t="s">
-        <v>39</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="H164" t="s">
+        <v>39</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6076,22 +6527,25 @@
         <v>455</v>
       </c>
       <c r="D165" t="s">
+        <v>526</v>
+      </c>
+      <c r="E165" t="s">
         <v>523</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>387</v>
-      </c>
-      <c r="F165" t="s">
-        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>39</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="H165" t="s">
+        <v>39</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6102,22 +6556,25 @@
         <v>457</v>
       </c>
       <c r="D166" t="s">
+        <v>526</v>
+      </c>
+      <c r="E166" t="s">
         <v>523</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>387</v>
-      </c>
-      <c r="F166" t="s">
-        <v>39</v>
       </c>
       <c r="G166" t="s">
         <v>39</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="H166" t="s">
+        <v>39</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6128,22 +6585,25 @@
         <v>459</v>
       </c>
       <c r="D167" t="s">
+        <v>526</v>
+      </c>
+      <c r="E167" t="s">
         <v>523</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>460</v>
-      </c>
-      <c r="F167" t="s">
-        <v>461</v>
       </c>
       <c r="G167" t="s">
         <v>461</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="H167" t="s">
+        <v>461</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6154,22 +6614,25 @@
         <v>463</v>
       </c>
       <c r="D168" t="s">
+        <v>526</v>
+      </c>
+      <c r="E168" t="s">
         <v>523</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>387</v>
-      </c>
-      <c r="F168" t="s">
-        <v>39</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
       </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="H168" t="s">
+        <v>39</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6180,22 +6643,25 @@
         <v>465</v>
       </c>
       <c r="D169" t="s">
+        <v>526</v>
+      </c>
+      <c r="E169" t="s">
         <v>523</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>291</v>
-      </c>
-      <c r="F169" t="s">
-        <v>39</v>
       </c>
       <c r="G169" t="s">
         <v>39</v>
       </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="H169" t="s">
+        <v>39</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6206,22 +6672,25 @@
         <v>467</v>
       </c>
       <c r="D170" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E170" t="s">
+        <v>522</v>
+      </c>
+      <c r="F170" t="s">
         <v>281</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>48</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>49</v>
       </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6232,22 +6701,25 @@
         <v>469</v>
       </c>
       <c r="D171" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E171" t="s">
+        <v>522</v>
+      </c>
+      <c r="F171" t="s">
         <v>281</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>48</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>49</v>
       </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6258,22 +6730,25 @@
         <v>471</v>
       </c>
       <c r="D172" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E172" t="s">
+        <v>522</v>
+      </c>
+      <c r="F172" t="s">
         <v>281</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>48</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>49</v>
       </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6284,22 +6759,25 @@
         <v>472</v>
       </c>
       <c r="D173" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E173" t="s">
+        <v>522</v>
+      </c>
+      <c r="F173" t="s">
         <v>352</v>
-      </c>
-      <c r="F173" t="s">
-        <v>461</v>
       </c>
       <c r="G173" t="s">
         <v>461</v>
       </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="H173" t="s">
+        <v>461</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6310,22 +6788,25 @@
         <v>474</v>
       </c>
       <c r="D174" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E174" t="s">
+        <v>522</v>
+      </c>
+      <c r="F174" t="s">
         <v>281</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>48</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>49</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6336,22 +6817,25 @@
         <v>476</v>
       </c>
       <c r="D175" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E175" t="s">
+        <v>522</v>
+      </c>
+      <c r="F175" t="s">
         <v>303</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>250</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>251</v>
       </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6362,22 +6846,25 @@
         <v>478</v>
       </c>
       <c r="D176" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E176" t="s">
+        <v>522</v>
+      </c>
+      <c r="F176" t="s">
         <v>303</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>479</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>480</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6388,22 +6875,25 @@
         <v>482</v>
       </c>
       <c r="D177" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E177" t="s">
+        <v>522</v>
+      </c>
+      <c r="F177" t="s">
         <v>303</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>483</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>484</v>
       </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6414,22 +6904,25 @@
         <v>486</v>
       </c>
       <c r="D178" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E178" t="s">
+        <v>522</v>
+      </c>
+      <c r="F178" t="s">
         <v>303</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>487</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>488</v>
       </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6440,22 +6933,25 @@
         <v>490</v>
       </c>
       <c r="D179" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E179" t="s">
+        <v>522</v>
+      </c>
+      <c r="F179" t="s">
         <v>281</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>48</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>49</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6466,22 +6962,25 @@
         <v>492</v>
       </c>
       <c r="D180" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E180" t="s">
+        <v>522</v>
+      </c>
+      <c r="F180" t="s">
         <v>281</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>15</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>16</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6492,22 +6991,25 @@
         <v>494</v>
       </c>
       <c r="D181" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E181" t="s">
+        <v>522</v>
+      </c>
+      <c r="F181" t="s">
         <v>281</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>48</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>49</v>
       </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6518,22 +7020,25 @@
         <v>496</v>
       </c>
       <c r="D182" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E182" t="s">
+        <v>522</v>
+      </c>
+      <c r="F182" t="s">
         <v>281</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>15</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>16</v>
       </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6544,22 +7049,25 @@
         <v>498</v>
       </c>
       <c r="D183" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E183" t="s">
+        <v>522</v>
+      </c>
+      <c r="F183" t="s">
         <v>303</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>479</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>480</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6570,22 +7078,25 @@
         <v>500</v>
       </c>
       <c r="D184" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E184" t="s">
+        <v>522</v>
+      </c>
+      <c r="F184" t="s">
         <v>303</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>483</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>484</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6596,22 +7107,25 @@
         <v>502</v>
       </c>
       <c r="D185" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E185" t="s">
+        <v>522</v>
+      </c>
+      <c r="F185" t="s">
         <v>303</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>487</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>488</v>
       </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6622,22 +7136,25 @@
         <v>504</v>
       </c>
       <c r="D186" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E186" t="s">
+        <v>522</v>
+      </c>
+      <c r="F186" t="s">
         <v>281</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>48</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>49</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6647,20 +7164,20 @@
       <c r="C187" t="s">
         <v>506</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>341</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>507</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>508</v>
       </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6670,20 +7187,20 @@
       <c r="C188" t="s">
         <v>510</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>341</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>511</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>512</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6693,20 +7210,20 @@
       <c r="C189" t="s">
         <v>514</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>352</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>515</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>516</v>
       </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6716,20 +7233,20 @@
       <c r="C190" t="s">
         <v>518</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>341</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>342</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>343</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6739,16 +7256,16 @@
       <c r="C191" t="s">
         <v>514</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>341</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>515</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>516</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>1</v>
       </c>
     </row>
